--- a/Product_Details_Cleaned.xlsx
+++ b/Product_Details_Cleaned.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\Ajmera Fashion\Ajmera Fashion All images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD565FF-E429-4544-B8B7-49F8252F82CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A5477A-D2B0-4629-A162-03B0692CAF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="615">
   <si>
     <t>Item</t>
   </si>
@@ -1565,6 +1566,309 @@
   </si>
   <si>
     <t xml:space="preserve"> RS=615.00 - SDE-3756 (L-XL-XXL-3XL)_page_3.png</t>
+  </si>
+  <si>
+    <t>KRJ-MUSKAN (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>MSV-RICH LADY-M _page_1.png</t>
+  </si>
+  <si>
+    <t>MSV-RICH LADY-XXL _page_1.png</t>
+  </si>
+  <si>
+    <t>PP-LOTUS-D.NO-1001-3XL_page_1.png</t>
+  </si>
+  <si>
+    <t>PP-LOTUS-D.NO-1002-M _page_1.png</t>
+  </si>
+  <si>
+    <t>TUL-QUEEN-L_page_1.png</t>
+  </si>
+  <si>
+    <t>TUL-QUEEN-XL_page_1.png</t>
+  </si>
+  <si>
+    <t>JNF-DISHA (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>PP-HETAL (S-M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10205 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10208 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10210 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10296 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10297 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10299 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10300 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10301 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10302 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10305 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10307 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SMY-KAPTAN FOIL PRINT (20-40)_page_1.png</t>
+  </si>
+  <si>
+    <t>RAMD-PRINT TO PRINT NS-10 _page_1.png</t>
+  </si>
+  <si>
+    <t>RAMD-PRINT TO PRINT NS-12 _page_1.png</t>
+  </si>
+  <si>
+    <t>RAMD-PRINT TO PRINT NS-14 _page_1.png</t>
+  </si>
+  <si>
+    <t>RAMD-PRINT TO PRINT NS-6 _page_1.png</t>
+  </si>
+  <si>
+    <t>RAMD-PRINT TO PRINT NS-8 _page_1.png</t>
+  </si>
+  <si>
+    <t>PP-PEACOCK (S-M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-3668-KURTI (L-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-7161 (L-XL-XXL-3XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-7190 (L-XL-XXL-3XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>PP-AVNI VOL-5-M _page_1.png</t>
+  </si>
+  <si>
+    <t>PP-MODAK (S-M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>JNF-KALI KURTI COTTON BIG (3XL-4XL-5XL-6XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-1936 KURTI (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-1940 KURTI (L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SMY-JUMP SUIT WITH FOIL PRINT (20-40)_page_1.png</t>
+  </si>
+  <si>
+    <t>SMY-PRINT JUMP SUIT GOLI (20-40)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-5566 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-5573 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-5569 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-5577 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>KRJ-TANISHA (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SMY-FROCK FOIL PRINT WITH LACE (20-40)_page_1.png</t>
+  </si>
+  <si>
+    <t>PP-FIRE (S-M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>RAMD-COLLAR NS (6-8-10-12-14-16)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-1983 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-1997 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>ATC-9546 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10245 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10321 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10322 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10323 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-6544 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-6545 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SHP-51 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SHP-52 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SHP-54 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SHP-56 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>GNC-HETALI (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10154 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10155 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10156 (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BS-KOMAL (L-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>KKN-ALIYA CUT TOP (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-300 VERTICAN (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-301 VERTICAN (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-1266 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-321 VETICAN (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>JNF-601 SEQUENCE (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10329 (XL-XXL-3XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10331 (L-XL-XXL-3XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BRN-10332 (L-XL-XXL-3XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>KRJ-COTTON 3-PCS WITH WORK (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>LSY-2114 (S-M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>LSY-2357 (S-M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>LSY-2629 (S-M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-223 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-3603 (M-L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>VDP-GULNAAZ (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-2392 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-2416 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-2427 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-8178 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>KRJ-REKHA (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>BS-UTKAL (M-L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SHP-4599 (XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SHP-4603 (XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SHP-5037 (XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SHP-5040 (XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-540 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>STX-327 (L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>STX-35024 (L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>STX-35025 (L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>STX-35071 (L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>STX-35072 (L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-501 (L-XL-XXL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-3703 KURTI (L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-3706 (L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-3709 (L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-3740 (L-XL)_page_1.png</t>
+  </si>
+  <si>
+    <t>SDE-3756 (L-XL-XXL-3XL)_page_1.png</t>
   </si>
 </sst>
 </file>
@@ -1927,10 +2231,1423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D1:G102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D85" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>170</v>
+      </c>
+      <c r="G2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>225</v>
+      </c>
+      <c r="G4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>233</v>
+      </c>
+      <c r="G5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>233</v>
+      </c>
+      <c r="G6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>234</v>
+      </c>
+      <c r="G7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>234</v>
+      </c>
+      <c r="G8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <v>237</v>
+      </c>
+      <c r="G9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>249</v>
+      </c>
+      <c r="G10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>250</v>
+      </c>
+      <c r="G11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>250</v>
+      </c>
+      <c r="G12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>250</v>
+      </c>
+      <c r="G13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>250</v>
+      </c>
+      <c r="G14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>250</v>
+      </c>
+      <c r="G15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>250</v>
+      </c>
+      <c r="G16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>250</v>
+      </c>
+      <c r="G17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>250</v>
+      </c>
+      <c r="G18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>250</v>
+      </c>
+      <c r="G19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>250</v>
+      </c>
+      <c r="G20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>250</v>
+      </c>
+      <c r="G21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22">
+        <v>266</v>
+      </c>
+      <c r="G22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23">
+        <v>269</v>
+      </c>
+      <c r="G23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24">
+        <v>269</v>
+      </c>
+      <c r="G24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25">
+        <v>269</v>
+      </c>
+      <c r="G25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26">
+        <v>269</v>
+      </c>
+      <c r="G26" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27">
+        <v>269</v>
+      </c>
+      <c r="G27" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28">
+        <v>279</v>
+      </c>
+      <c r="G28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29">
+        <v>281</v>
+      </c>
+      <c r="G29" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30">
+        <v>281</v>
+      </c>
+      <c r="G30" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33">
+        <v>285</v>
+      </c>
+      <c r="G33" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34">
+        <v>319</v>
+      </c>
+      <c r="G34" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35">
+        <v>319</v>
+      </c>
+      <c r="G35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>337</v>
+      </c>
+      <c r="G39" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44">
+        <v>348</v>
+      </c>
+      <c r="G44" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45">
+        <v>351</v>
+      </c>
+      <c r="G45" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46">
+        <v>355</v>
+      </c>
+      <c r="G46" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>356</v>
+      </c>
+      <c r="G47" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>267</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48">
+        <v>356</v>
+      </c>
+      <c r="G48" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>362</v>
+      </c>
+      <c r="G49" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50">
+        <v>365</v>
+      </c>
+      <c r="G50" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51">
+        <v>365</v>
+      </c>
+      <c r="G51" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>283</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52">
+        <v>365</v>
+      </c>
+      <c r="G52" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>287</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53">
+        <v>365</v>
+      </c>
+      <c r="G53" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>291</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>381</v>
+      </c>
+      <c r="G54" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>295</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <v>381</v>
+      </c>
+      <c r="G55" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>299</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <v>381</v>
+      </c>
+      <c r="G56" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>303</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <v>381</v>
+      </c>
+      <c r="G57" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>381</v>
+      </c>
+      <c r="G58" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>311</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>381</v>
+      </c>
+      <c r="G59" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60">
+        <v>385</v>
+      </c>
+      <c r="G60" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>322</v>
+      </c>
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61">
+        <v>389</v>
+      </c>
+      <c r="G61" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>326</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62">
+        <v>389</v>
+      </c>
+      <c r="G62" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>330</v>
+      </c>
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63">
+        <v>389</v>
+      </c>
+      <c r="G63" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>334</v>
+      </c>
+      <c r="E64" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64">
+        <v>389</v>
+      </c>
+      <c r="G64" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>342</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65">
+        <v>389</v>
+      </c>
+      <c r="G65" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>350</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>394</v>
+      </c>
+      <c r="G66" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>354</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>394</v>
+      </c>
+      <c r="G67" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>358</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>400</v>
+      </c>
+      <c r="G68" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>362</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69">
+        <v>400</v>
+      </c>
+      <c r="G69" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>366</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70">
+        <v>405</v>
+      </c>
+      <c r="G70" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E71" t="s">
+        <v>372</v>
+      </c>
+      <c r="F71">
+        <v>419</v>
+      </c>
+      <c r="G71" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>376</v>
+      </c>
+      <c r="E72" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72">
+        <v>419</v>
+      </c>
+      <c r="G72" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>380</v>
+      </c>
+      <c r="E73" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73">
+        <v>419</v>
+      </c>
+      <c r="G73" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>384</v>
+      </c>
+      <c r="E74" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74">
+        <v>419</v>
+      </c>
+      <c r="G74" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>391</v>
+      </c>
+      <c r="E75" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75">
+        <v>439</v>
+      </c>
+      <c r="G75" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>395</v>
+      </c>
+      <c r="E76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76">
+        <v>439</v>
+      </c>
+      <c r="G76" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>399</v>
+      </c>
+      <c r="E77" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77">
+        <v>439</v>
+      </c>
+      <c r="G77" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>403</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>439</v>
+      </c>
+      <c r="G78" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>407</v>
+      </c>
+      <c r="E79" t="s">
+        <v>408</v>
+      </c>
+      <c r="F79">
+        <v>439</v>
+      </c>
+      <c r="G79" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
+        <v>412</v>
+      </c>
+      <c r="E80" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80">
+        <v>445</v>
+      </c>
+      <c r="G80" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>420</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>494</v>
+      </c>
+      <c r="G81" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>424</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>494</v>
+      </c>
+      <c r="G82" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
+        <v>428</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>494</v>
+      </c>
+      <c r="G83" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
+        <v>432</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>494</v>
+      </c>
+      <c r="G84" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>436</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85">
+        <v>495</v>
+      </c>
+      <c r="G85" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D86" t="s">
+        <v>441</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86">
+        <v>499</v>
+      </c>
+      <c r="G86" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D87" t="s">
+        <v>449</v>
+      </c>
+      <c r="E87" t="s">
+        <v>450</v>
+      </c>
+      <c r="F87">
+        <v>515</v>
+      </c>
+      <c r="G87" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D88" t="s">
+        <v>454</v>
+      </c>
+      <c r="E88" t="s">
+        <v>450</v>
+      </c>
+      <c r="F88">
+        <v>515</v>
+      </c>
+      <c r="G88" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>458</v>
+      </c>
+      <c r="E89" t="s">
+        <v>450</v>
+      </c>
+      <c r="F89">
+        <v>545</v>
+      </c>
+      <c r="G89" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>462</v>
+      </c>
+      <c r="E90" t="s">
+        <v>450</v>
+      </c>
+      <c r="F90">
+        <v>545</v>
+      </c>
+      <c r="G90" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D91" t="s">
+        <v>466</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>600</v>
+      </c>
+      <c r="G91" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D92" t="s">
+        <v>470</v>
+      </c>
+      <c r="E92" t="s">
+        <v>195</v>
+      </c>
+      <c r="F92">
+        <v>600</v>
+      </c>
+      <c r="G92" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D93" t="s">
+        <v>474</v>
+      </c>
+      <c r="E93" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93">
+        <v>600</v>
+      </c>
+      <c r="G93" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
+        <v>478</v>
+      </c>
+      <c r="E94" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94">
+        <v>600</v>
+      </c>
+      <c r="G94" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D95" t="s">
+        <v>482</v>
+      </c>
+      <c r="E95" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95">
+        <v>600</v>
+      </c>
+      <c r="G95" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D96" t="s">
+        <v>486</v>
+      </c>
+      <c r="E96" t="s">
+        <v>195</v>
+      </c>
+      <c r="F96">
+        <v>600</v>
+      </c>
+      <c r="G96" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D97" t="s">
+        <v>490</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97">
+        <v>606</v>
+      </c>
+      <c r="G97" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D98" t="s">
+        <v>494</v>
+      </c>
+      <c r="E98" t="s">
+        <v>195</v>
+      </c>
+      <c r="F98">
+        <v>615</v>
+      </c>
+      <c r="G98" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D99" t="s">
+        <v>498</v>
+      </c>
+      <c r="E99" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99">
+        <v>615</v>
+      </c>
+      <c r="G99" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D100" t="s">
+        <v>502</v>
+      </c>
+      <c r="E100" t="s">
+        <v>195</v>
+      </c>
+      <c r="F100">
+        <v>615</v>
+      </c>
+      <c r="G100" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D101" t="s">
+        <v>506</v>
+      </c>
+      <c r="E101" t="s">
+        <v>195</v>
+      </c>
+      <c r="F101">
+        <v>615</v>
+      </c>
+      <c r="G101" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D102" t="s">
+        <v>510</v>
+      </c>
+      <c r="E102" t="s">
+        <v>158</v>
+      </c>
+      <c r="F102">
+        <v>615</v>
+      </c>
+      <c r="G102" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0F8F2-2EEB-4F4E-B6CA-F175D45F14F8}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4216,6 +5933,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>